--- a/DaZhongTransitionLiquidation/Template/OBD资产清册导入.xlsx
+++ b/DaZhongTransitionLiquidation/Template/OBD资产清册导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>设备号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -23,11 +23,18 @@
     <t>车牌号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>启用日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,16 +106,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -408,24 +428,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>35431</formula>
+      <formula>765916</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C6:C1048576">
+      <formula1>35431</formula1>
+      <formula2>2593224</formula2>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="启用日期格式错误" sqref="C1">
+      <formula1>35431</formula1>
+      <formula2>2593224</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DaZhongTransitionLiquidation/Template/OBD资产清册导入.xlsx
+++ b/DaZhongTransitionLiquidation/Template/OBD资产清册导入.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -106,13 +107,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -121,12 +126,9 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -431,17 +433,18 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" style="7"/>
     <col min="3" max="3" width="12.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -460,7 +463,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>35431</formula>
       <formula>765916</formula>
     </cfRule>
